--- a/data/trans_dic/P16A12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 7,06</t>
+          <t>3,11; 7,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,72</t>
+          <t>2,53; 6,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,38</t>
+          <t>4,93; 10,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 10,19</t>
+          <t>5,83; 10,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,63</t>
+          <t>0,6; 3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,68</t>
+          <t>1,93; 6,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,1</t>
+          <t>2,04; 6,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,43</t>
+          <t>2,11; 4,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,02</t>
+          <t>2,37; 5,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,2</t>
+          <t>2,87; 5,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,65</t>
+          <t>4,06; 7,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 6,9</t>
+          <t>4,4; 6,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,96</t>
+          <t>2,76; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,79</t>
+          <t>3,3; 7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,88</t>
+          <t>4,04; 8,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,87</t>
+          <t>7,07; 12,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,39</t>
+          <t>0,55; 3,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,19</t>
+          <t>1,21; 5,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,27</t>
+          <t>1,18; 5,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,81</t>
+          <t>1,51; 3,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,19</t>
+          <t>1,9; 4,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,76</t>
+          <t>2,83; 5,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 6,09</t>
+          <t>3,06; 6,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,59</t>
+          <t>4,77; 7,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 7,16</t>
+          <t>3,55; 7,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,11; 13,17</t>
+          <t>7,99; 12,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 13,09</t>
+          <t>7,54; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,42</t>
+          <t>2,25; 11,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,64</t>
+          <t>4,08; 12,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,23</t>
+          <t>3,66; 10,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,98</t>
+          <t>3,18; 11,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,4</t>
+          <t>6,73; 13,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 7,79</t>
+          <t>4,2; 7,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,42</t>
+          <t>7,43; 11,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,88</t>
+          <t>7,09; 11,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 11,08</t>
+          <t>3,06; 11,28</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,02</t>
+          <t>6,02; 9,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,78</t>
+          <t>7,31; 10,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,19</t>
+          <t>7,54; 10,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,28</t>
+          <t>8,82; 12,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,93</t>
+          <t>3,02; 6,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,24</t>
+          <t>3,6; 6,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,29</t>
+          <t>2,44; 5,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,81</t>
+          <t>2,16; 5,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,35</t>
+          <t>5,34; 7,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,77</t>
+          <t>6,28; 8,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 8,14</t>
+          <t>5,88; 8,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,86</t>
+          <t>5,25; 8,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 9,47</t>
+          <t>4,08; 9,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 9,48</t>
+          <t>4,77; 9,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,43; 13,25</t>
+          <t>8,47; 13,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,73; 11,26</t>
+          <t>6,79; 11,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,45</t>
+          <t>3,49; 7,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,05</t>
+          <t>6,9; 10,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,56</t>
+          <t>7,22; 11,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,09</t>
+          <t>7,39; 12,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,42</t>
+          <t>4,15; 7,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,65</t>
+          <t>6,67; 9,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,76</t>
+          <t>8,32; 11,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,11</t>
+          <t>7,79; 11,09</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1430,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,27</t>
+          <t>0,73; 5,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,27</t>
+          <t>0,38; 3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,76</t>
+          <t>0,2; 2,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,43</t>
+          <t>8,1; 11,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,11; 16,25</t>
+          <t>11,95; 15,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,54</t>
+          <t>11,4; 15,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,45; 12,86</t>
+          <t>9,34; 12,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,52</t>
+          <t>6,59; 9,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 13,51</t>
+          <t>9,87; 13,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,74</t>
+          <t>9,14; 12,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,11</t>
+          <t>7,28; 9,96</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,36</t>
+          <t>4,88; 6,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,49</t>
+          <t>6,52; 8,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,35</t>
+          <t>7,56; 9,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,39</t>
+          <t>6,2; 9,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,95</t>
+          <t>5,3; 6,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 9,42</t>
+          <t>7,47; 9,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,03; 8,9</t>
+          <t>6,84; 8,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 7,81</t>
+          <t>5,64; 7,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,44</t>
+          <t>5,27; 6,4</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 8,61</t>
+          <t>7,18; 8,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,51; 8,85</t>
+          <t>7,46; 8,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 8,34</t>
+          <t>6,64; 8,35</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22865</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19041</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30877</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39223</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4897</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12155</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12626</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13928</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27762</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31196</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43502</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>53151</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14712; 33227</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11073; 29331</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21160; 44129</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29450; 50874</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1828; 11129</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6061; 20697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7093; 21432</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9447; 20786</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18495; 39364</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21578; 44936</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31538; 57818</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>41950; 66600</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>16508</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>21847</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23155</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41878</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5498</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>9106</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9961</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>9218</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22006</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30953</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>33116</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>51096</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10118; 24772</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>13745; 30692</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15244; 32712</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>31986; 55176</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2043; 12501</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4054; 17383</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4395; 19037</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5787; 14468</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14050; 32579</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21327; 44808</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22942; 46519</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>39861; 63622</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28473</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>65330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>52300</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46207</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12625</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16048</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10764</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16525</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41098</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>81378</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>63064</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>62732</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19275; 40367</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>50205; 81196</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39335; 67973</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15058; 78013</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6844; 20306</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9431; 26181</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5280; 19738</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11227; 22165</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>29862; 53660</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>65840; 103163</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48811; 80616</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25555; 94224</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92091</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103281</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>106918</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>108667</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30138</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39356</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30550</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>41308</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>122229</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>142637</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>137468</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>149975</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>74604; 112200</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>84606; 125030</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86722; 126307</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>91316; 127614</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>21591; 43363</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27609; 52563</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20178; 43678</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>21161; 55701</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>104212; 145386</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>120775; 167462</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>116115; 159929</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>105563; 178472</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>22177</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34844</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>66518</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>42181</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>29404</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>67908</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>67983</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>84229</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>51581</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>102752</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>134501</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>126410</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14251; 32438</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24343; 47343</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>52585; 83246</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32211; 54662</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19870; 42818</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>52390; 82898</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>53317; 87746</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>62020; 101559</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>38134; 67899</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>84740; 124935</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>113002; 158925</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>102296; 145619</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5727</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>122654</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>154420</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>144989</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>84369</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>123568</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>160147</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>149028</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>86390</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4587</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1939; 13432</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1077; 9850</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>482; 6694</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>101145; 143211</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>132029; 176609</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>123379; 169825</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>70992; 98045</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>102013; 146871</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>135291; 184467</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>125150; 172038</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>72805; 99691</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>915</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>250071</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>283807</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>280177</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>205215</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>298993</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>276873</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>249577</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>549064</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>560680</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>529754</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>159449; 211810</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>222650; 284519</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>255846; 319842</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>209292; 316822</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>179170; 234233</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>264424; 330724</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>241726; 314529</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>201652; 278113</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>350504; 425708</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>499680; 599141</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>516352; 610851</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>461581; 580447</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A12-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
